--- a/100runs/run071/NotionalETEOutput071.xlsx
+++ b/100runs/run071/NotionalETEOutput071.xlsx
@@ -49,22 +49,22 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_168.MISSILE_HELLMASKER_168</t>
+    <t>MISSILE_SOMERSAULT_211.MISSILE_SOMERSAULT_211</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_335.MISSILE_HIGHWIND_335</t>
+    <t>MISSILE_BRAVER_83.MISSILE_BRAVER_83</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER</t>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND</t>
+    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -480,22 +480,22 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>216.2863037786542</v>
+        <v>1116578.66168857</v>
       </c>
       <c r="G2">
-        <v>-90.92313707452647</v>
+        <v>4841121.532317365</v>
       </c>
       <c r="H2">
-        <v>612.8613080539586</v>
+        <v>3985222.801758897</v>
       </c>
       <c r="I2">
-        <v>-1949.78787562579</v>
+        <v>1114861.08313138</v>
       </c>
       <c r="J2">
-        <v>1050.589351464391</v>
+        <v>4843227.61559637</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984367.18389661</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,22 +515,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>216.2863037786542</v>
+        <v>1116578.66168857</v>
       </c>
       <c r="G3">
-        <v>-90.92313707452647</v>
+        <v>4841121.532317365</v>
       </c>
       <c r="H3">
-        <v>612.8613080539586</v>
+        <v>3985222.801758897</v>
       </c>
       <c r="I3">
-        <v>-1911.293871188001</v>
+        <v>1114890.697120558</v>
       </c>
       <c r="J3">
-        <v>1025.032931198476</v>
+        <v>4843178.963964528</v>
       </c>
       <c r="K3">
-        <v>78.66614796133834</v>
+        <v>3984670.979649378</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,22 +550,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>216.2863037786542</v>
+        <v>1116578.66168857</v>
       </c>
       <c r="G4">
-        <v>-90.92313707452647</v>
+        <v>4841121.532317365</v>
       </c>
       <c r="H4">
-        <v>612.8613080539586</v>
+        <v>3985222.801758897</v>
       </c>
       <c r="I4">
-        <v>-1871.851987304766</v>
+        <v>1114921.040326975</v>
       </c>
       <c r="J4">
-        <v>999.4765109325612</v>
+        <v>4843130.312332686</v>
       </c>
       <c r="K4">
-        <v>153.4096411926473</v>
+        <v>3984959.626753364</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,22 +585,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>216.2863037786542</v>
+        <v>1116578.66168857</v>
       </c>
       <c r="G5">
-        <v>-90.92313707452647</v>
+        <v>4841121.532317365</v>
       </c>
       <c r="H5">
-        <v>612.8613080539586</v>
+        <v>3985222.801758897</v>
       </c>
       <c r="I5">
-        <v>-1831.438883316775</v>
+        <v>1114952.130706934</v>
       </c>
       <c r="J5">
-        <v>973.9200906666459</v>
+        <v>4843081.660700845</v>
       </c>
       <c r="K5">
-        <v>224.2304796939275</v>
+        <v>3985233.125208567</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,22 +620,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>216.2863037786542</v>
+        <v>1116578.66168857</v>
       </c>
       <c r="G6">
-        <v>-90.92313707452647</v>
+        <v>4841121.532317365</v>
       </c>
       <c r="H6">
-        <v>612.8613080539586</v>
+        <v>3985222.801758897</v>
       </c>
       <c r="I6">
-        <v>-1790.030643822453</v>
+        <v>1114983.986658898</v>
       </c>
       <c r="J6">
-        <v>948.3636704007309</v>
+        <v>4843033.009069003</v>
       </c>
       <c r="K6">
-        <v>291.1286634651784</v>
+        <v>3985491.475014988</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,22 +655,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>216.2863037786542</v>
+        <v>1116578.66168857</v>
       </c>
       <c r="G7">
-        <v>-90.92313707452647</v>
+        <v>4841121.532317365</v>
       </c>
       <c r="H7">
-        <v>612.8613080539586</v>
+        <v>3985222.801758897</v>
       </c>
       <c r="I7">
-        <v>-1747.602764525465</v>
+        <v>1115016.627034372</v>
       </c>
       <c r="J7">
-        <v>922.8072501348158</v>
+        <v>4842984.357437162</v>
       </c>
       <c r="K7">
-        <v>354.1041925064006</v>
+        <v>3985734.676172625</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,22 +690,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>216.2863037786542</v>
+        <v>1116578.66168857</v>
       </c>
       <c r="G8">
-        <v>-90.92313707452647</v>
+        <v>4841121.532317365</v>
       </c>
       <c r="H8">
-        <v>612.8613080539586</v>
+        <v>3985222.801758897</v>
       </c>
       <c r="I8">
-        <v>-1704.130137733722</v>
+        <v>1115050.071149063</v>
       </c>
       <c r="J8">
-        <v>897.2508298689006</v>
+        <v>4842935.705805319</v>
       </c>
       <c r="K8">
-        <v>413.1570668175936</v>
+        <v>3985962.72868148</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,22 +725,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>216.2863037786542</v>
+        <v>1116578.66168857</v>
       </c>
       <c r="G9">
-        <v>-90.92313707452647</v>
+        <v>4841121.532317365</v>
       </c>
       <c r="H9">
-        <v>612.8613080539586</v>
+        <v>3985222.801758897</v>
       </c>
       <c r="I9">
-        <v>-1659.587037501315</v>
+        <v>1115084.33879431</v>
       </c>
       <c r="J9">
-        <v>871.6944096029855</v>
+        <v>4842887.054173478</v>
       </c>
       <c r="K9">
-        <v>468.2872863987576</v>
+        <v>3986175.632541552</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,22 +760,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>216.2863037786542</v>
+        <v>1116578.66168857</v>
       </c>
       <c r="G10">
-        <v>-75.90916782558969</v>
+        <v>4841138.045126237</v>
       </c>
       <c r="H10">
-        <v>612.8613080539586</v>
+        <v>3985222.801758897</v>
       </c>
       <c r="I10">
-        <v>-1613.947104404587</v>
+        <v>1115119.450248796</v>
       </c>
       <c r="J10">
-        <v>846.1379893370704</v>
+        <v>4842838.402541636</v>
       </c>
       <c r="K10">
-        <v>519.4948512498923</v>
+        <v>3986373.387752841</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,22 +795,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>167.86340292649</v>
+        <v>1116529.981117918</v>
       </c>
       <c r="G11">
-        <v>-60.89519857665292</v>
+        <v>4841154.557935108</v>
       </c>
       <c r="H11">
-        <v>755.0410075445277</v>
+        <v>3985422.055889352</v>
       </c>
       <c r="I11">
-        <v>-1567.18332994332</v>
+        <v>1115155.426290547</v>
       </c>
       <c r="J11">
-        <v>820.5815690711554</v>
+        <v>4842789.750909794</v>
       </c>
       <c r="K11">
-        <v>566.779761370998</v>
+        <v>3986555.994315348</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,22 +830,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>139.4173778307731</v>
+        <v>1116501.383724742</v>
       </c>
       <c r="G12">
-        <v>-45.88122932771615</v>
+        <v>4841171.070743981</v>
       </c>
       <c r="H12">
-        <v>839.7305079069932</v>
+        <v>3985540.741839693</v>
       </c>
       <c r="I12">
-        <v>-1519.268040557828</v>
+        <v>1115192.288209229</v>
       </c>
       <c r="J12">
-        <v>795.0251488052402</v>
+        <v>4842741.099277952</v>
       </c>
       <c r="K12">
-        <v>610.1420167620748</v>
+        <v>3986723.452229071</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,22 +865,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>121.4601598843681</v>
+        <v>1116483.330952158</v>
       </c>
       <c r="G13">
-        <v>-30.86726007877937</v>
+        <v>4841187.583552853</v>
       </c>
       <c r="H13">
-        <v>900.2523698715399</v>
+        <v>3985625.558666726</v>
       </c>
       <c r="I13">
-        <v>-1470.172881252475</v>
+        <v>1115230.057818745</v>
       </c>
       <c r="J13">
-        <v>769.4687285393251</v>
+        <v>4842692.44764611</v>
       </c>
       <c r="K13">
-        <v>649.5816174231227</v>
+        <v>3986875.761494012</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -900,22 +900,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>108.9368689811722</v>
+        <v>1116470.741021839</v>
       </c>
       <c r="G14">
-        <v>-15.8532908298426</v>
+        <v>4841204.096361724</v>
       </c>
       <c r="H14">
-        <v>947.3807113587213</v>
+        <v>3985691.605484495</v>
       </c>
       <c r="I14">
-        <v>-1419.868798815948</v>
+        <v>1115268.757470149</v>
       </c>
       <c r="J14">
-        <v>743.9123082734098</v>
+        <v>4842643.796014269</v>
       </c>
       <c r="K14">
-        <v>685.0985633541414</v>
+        <v>3987012.92211017</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -935,22 +935,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>99.59411893761536</v>
+        <v>1116461.348556795</v>
       </c>
       <c r="G15">
-        <v>-0.8393215809058311</v>
+        <v>4841220.609170596</v>
       </c>
       <c r="H15">
-        <v>985.9824786441031</v>
+        <v>3985745.702951307</v>
       </c>
       <c r="I15">
-        <v>-1368.326024628328</v>
+        <v>1115308.410064865</v>
       </c>
       <c r="J15">
-        <v>718.3558880074949</v>
+        <v>4842595.144382427</v>
       </c>
       <c r="K15">
-        <v>716.6928545551309</v>
+        <v>3987134.934077546</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -970,22 +970,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>92.28939307991801</v>
+        <v>1116454.004960749</v>
       </c>
       <c r="G16">
-        <v>14.17464766803095</v>
+        <v>4841237.121979468</v>
       </c>
       <c r="H16">
-        <v>1018.675357742382</v>
+        <v>3985791.519556773</v>
       </c>
       <c r="I16">
-        <v>-1315.51405704482</v>
+        <v>1115349.039068247</v>
       </c>
       <c r="J16">
-        <v>692.7994677415796</v>
+        <v>4842546.492750585</v>
       </c>
       <c r="K16">
-        <v>744.3644910260915</v>
+        <v>3987241.797396138</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1005,22 +1005,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>86.37933798651096</v>
+        <v>1116448.063456844</v>
       </c>
       <c r="G17">
-        <v>29.18861691696772</v>
+        <v>4841253.63478834</v>
       </c>
       <c r="H17">
-        <v>1047.030476099495</v>
+        <v>3985831.257117567</v>
       </c>
       <c r="I17">
-        <v>-1261.401643345688</v>
+        <v>1115390.668523459</v>
       </c>
       <c r="J17">
-        <v>667.2430474756646</v>
+        <v>4842497.841118744</v>
       </c>
       <c r="K17">
-        <v>768.113472767023</v>
+        <v>3987333.512065948</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1040,22 +1040,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>81.4718863883801</v>
+        <v>1116443.129891526</v>
       </c>
       <c r="G18">
-        <v>44.20258616590449</v>
+        <v>4841270.147597212</v>
       </c>
       <c r="H18">
-        <v>1072.065239764993</v>
+        <v>3985866.341451569</v>
       </c>
       <c r="I18">
-        <v>-1205.956761241723</v>
+        <v>1115433.323065707</v>
       </c>
       <c r="J18">
-        <v>641.6866272097494</v>
+        <v>4842449.189486902</v>
       </c>
       <c r="K18">
-        <v>787.9397997779256</v>
+        <v>3987410.078086975</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1075,22 +1075,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>77.31319039881863</v>
+        <v>1116438.949066123</v>
       </c>
       <c r="G19">
-        <v>59.21655541484128</v>
+        <v>4841286.660406084</v>
       </c>
       <c r="H19">
-        <v>1094.476390963036</v>
+        <v>3985897.748990483</v>
       </c>
       <c r="I19">
-        <v>-1149.146599924303</v>
+        <v>1115477.027936816</v>
       </c>
       <c r="J19">
-        <v>616.1302069438343</v>
+        <v>4842400.537855061</v>
       </c>
       <c r="K19">
-        <v>803.8434720587991</v>
+        <v>3987471.495459219</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1110,22 +1110,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>73.73087952771549</v>
+        <v>1116435.347692922</v>
       </c>
       <c r="G20">
-        <v>74.23052466377804</v>
+        <v>4841303.173214956</v>
       </c>
       <c r="H20">
-        <v>1114.762042192742</v>
+        <v>3985926.177801423</v>
       </c>
       <c r="I20">
-        <v>-1090.937540648832</v>
+        <v>1115521.809000169</v>
       </c>
       <c r="J20">
-        <v>590.5737866779192</v>
+        <v>4842351.886223218</v>
       </c>
       <c r="K20">
-        <v>815.8244896096434</v>
+        <v>3987517.76418268</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1145,22 +1145,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>70.60333703302661</v>
+        <v>1116432.203508029</v>
       </c>
       <c r="G21">
-        <v>89.24449391271482</v>
+        <v>4841319.686023829</v>
       </c>
       <c r="H21">
-        <v>1133.290668331824</v>
+        <v>3985952.144274156</v>
       </c>
       <c r="I21">
-        <v>-1031.295136840056</v>
+        <v>1115567.692756009</v>
       </c>
       <c r="J21">
-        <v>565.0173664120041</v>
+        <v>4842303.234591376</v>
       </c>
       <c r="K21">
-        <v>823.8828524304587</v>
+        <v>3987548.884257359</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1180,22 +1180,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>67.8420126086709</v>
+        <v>1116429.427489938</v>
       </c>
       <c r="G22">
-        <v>104.2584631616516</v>
+        <v>4841336.1988327</v>
       </c>
       <c r="H22">
-        <v>1150.342522929901</v>
+        <v>3985976.041162901</v>
       </c>
       <c r="I22">
-        <v>-970.1840937074929</v>
+        <v>1115614.706357124</v>
       </c>
       <c r="J22">
-        <v>539.460946146089</v>
+        <v>4842254.582959535</v>
       </c>
       <c r="K22">
-        <v>828.018560521245</v>
+        <v>3987564.855683255</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1215,22 +1215,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>65.38071457763726</v>
+        <v>1116426.953094754</v>
       </c>
       <c r="G23">
-        <v>119.2724324105884</v>
+        <v>4841352.711641572</v>
       </c>
       <c r="H23">
-        <v>1166.135731437705</v>
+        <v>3985998.174154035</v>
       </c>
       <c r="I23">
-        <v>-907.5682473589197</v>
+        <v>1115662.877624915</v>
       </c>
       <c r="J23">
-        <v>513.9045258801739</v>
+        <v>4842205.931327693</v>
       </c>
       <c r="K23">
-        <v>828.2316138820023</v>
+        <v>3987565.678460367</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1250,22 +1250,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.16884958641851</v>
+        <v>1116424.729459902</v>
       </c>
       <c r="G24">
-        <v>134.2864016595252</v>
+        <v>4841369.224450444</v>
       </c>
       <c r="H24">
-        <v>1180.843398139486</v>
+        <v>3986018.785840163</v>
       </c>
       <c r="I24">
-        <v>-843.4105433995354</v>
+        <v>1115712.235065859</v>
       </c>
       <c r="J24">
-        <v>488.3481056142587</v>
+        <v>4842157.279695851</v>
       </c>
       <c r="K24">
-        <v>824.5220125127305</v>
+        <v>3987551.352588697</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1285,22 +1285,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>61.16700021408908</v>
+        <v>1116422.716958212</v>
       </c>
       <c r="G25">
-        <v>149.3003709084619</v>
+        <v>4841385.737259315</v>
       </c>
       <c r="H25">
-        <v>1194.605202428735</v>
+        <v>3986038.071971425</v>
       </c>
       <c r="I25">
-        <v>-777.6730150041561</v>
+        <v>1115762.807888378</v>
       </c>
       <c r="J25">
-        <v>462.7916853483437</v>
+        <v>4842108.628064009</v>
       </c>
       <c r="K25">
-        <v>816.8897564134296</v>
+        <v>3987521.878068245</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1320,22 +1320,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>59.3439425722807</v>
+        <v>1116420.884199646</v>
       </c>
       <c r="G26">
-        <v>164.3143401573987</v>
+        <v>4841402.250068188</v>
       </c>
       <c r="H26">
-        <v>1207.535486276287</v>
+        <v>3986056.192789473</v>
       </c>
       <c r="I26">
-        <v>-710.316760449458</v>
+        <v>1115814.626020125</v>
       </c>
       <c r="J26">
-        <v>437.2352650824285</v>
+        <v>4842059.976432168</v>
       </c>
       <c r="K26">
-        <v>805.3348455840998</v>
+        <v>3987477.25489901</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1355,22 +1355,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>57.67458128000785</v>
+        <v>1116419.205955284</v>
       </c>
       <c r="G27">
-        <v>179.3283094063354</v>
+        <v>4841418.762877059</v>
       </c>
       <c r="H27">
-        <v>1219.729034549621</v>
+        <v>3986073.281128153</v>
       </c>
       <c r="I27">
-        <v>-641.3019200929687</v>
+        <v>1115867.720125695</v>
       </c>
       <c r="J27">
-        <v>411.6788448165133</v>
+        <v>4842011.324800326</v>
       </c>
       <c r="K27">
-        <v>789.8572800247408</v>
+        <v>3987417.483080992</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1390,22 +1390,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>56.13848627821672</v>
+        <v>1116417.661686355</v>
       </c>
       <c r="G28">
-        <v>194.3422786552723</v>
+        <v>4841435.275685932</v>
       </c>
       <c r="H28">
-        <v>1231.265295538145</v>
+        <v>3986089.448328254</v>
       </c>
       <c r="I28">
-        <v>-570.5876527851899</v>
+        <v>1115922.121624769</v>
       </c>
       <c r="J28">
-        <v>386.1224245505983</v>
+        <v>4841962.673168484</v>
       </c>
       <c r="K28">
-        <v>770.4570597353528</v>
+        <v>3987342.56261419</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1425,22 +1425,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.71883478133508</v>
+        <v>1116416.234480553</v>
       </c>
       <c r="G29">
-        <v>209.356247904209</v>
+        <v>4841451.788494804</v>
       </c>
       <c r="H29">
-        <v>1242.211521009539</v>
+        <v>3986104.788638059</v>
       </c>
       <c r="I29">
-        <v>-498.1321117008893</v>
+        <v>1115977.862710709</v>
       </c>
       <c r="J29">
-        <v>360.5660042846831</v>
+        <v>4841914.021536643</v>
       </c>
       <c r="K29">
-        <v>747.1341847159358</v>
+        <v>3987252.493498607</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1460,22 +1460,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>53.40163223867342</v>
+        <v>1116414.910268862</v>
       </c>
       <c r="G30">
-        <v>224.3702171531458</v>
+        <v>4841468.301303675</v>
       </c>
       <c r="H30">
-        <v>1252.625141616673</v>
+        <v>3986119.382542296</v>
       </c>
       <c r="I30">
-        <v>-423.8924195752635</v>
+        <v>1116034.976369609</v>
       </c>
       <c r="J30">
-        <v>335.009584018768</v>
+        <v>4841865.369904801</v>
       </c>
       <c r="K30">
-        <v>719.8886549664896</v>
+        <v>3987147.275734241</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1495,22 +1495,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>52.17512938529916</v>
+        <v>1116413.677239495</v>
       </c>
       <c r="G31">
-        <v>239.3841864020826</v>
+        <v>4841484.814112548</v>
       </c>
       <c r="H31">
-        <v>1262.555590760074</v>
+        <v>3986133.299318152</v>
       </c>
       <c r="I31">
-        <v>-347.8246433303088</v>
+        <v>1116093.496399816</v>
       </c>
       <c r="J31">
-        <v>309.4531637528529</v>
+        <v>4841816.718272958</v>
       </c>
       <c r="K31">
-        <v>688.7204704870146</v>
+        <v>3987026.909321092</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1530,22 +1530,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>51.02937963701204</v>
+        <v>1116412.525392939</v>
       </c>
       <c r="G32">
-        <v>254.3981556510194</v>
+        <v>4841501.32692142</v>
       </c>
       <c r="H32">
-        <v>1272.045723785621</v>
+        <v>3986146.599024163</v>
       </c>
       <c r="I32">
-        <v>-269.8837680763931</v>
+        <v>1116153.45743193</v>
       </c>
       <c r="J32">
-        <v>283.8967434869377</v>
+        <v>4841768.066641117</v>
       </c>
       <c r="K32">
-        <v>653.6296312775103</v>
+        <v>3986891.394259159</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1565,22 +1565,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.95589859380465</v>
+        <v>1116411.446199647</v>
       </c>
       <c r="G33">
-        <v>269.4121248999561</v>
+        <v>4841517.839730291</v>
       </c>
       <c r="H33">
-        <v>1281.132935695848</v>
+        <v>3986159.334066605</v>
       </c>
       <c r="I33">
-        <v>-190.0236704736397</v>
+        <v>1116214.894949296</v>
       </c>
       <c r="J33">
-        <v>258.3403232210227</v>
+        <v>4841719.415009275</v>
       </c>
       <c r="K33">
-        <v>614.6161373379772</v>
+        <v>3986740.730548445</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1600,22 +1600,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>48.94739894643261</v>
+        <v>1116410.432333533</v>
       </c>
       <c r="G34">
-        <v>284.4260941488929</v>
+        <v>4841534.352539163</v>
       </c>
       <c r="H34">
-        <v>1289.850051108039</v>
+        <v>3986171.550446705</v>
       </c>
       <c r="I34">
-        <v>-108.197091437361</v>
+        <v>1116277.845309006</v>
       </c>
       <c r="J34">
-        <v>232.7839029551075</v>
+        <v>4841670.763377434</v>
       </c>
       <c r="K34">
-        <v>571.6799886684149</v>
+        <v>3986574.918188947</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1635,22 +1635,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.9975818244549</v>
+        <v>1116409.477462207</v>
       </c>
       <c r="G35">
-        <v>299.4400633978296</v>
+        <v>4841550.865348035</v>
       </c>
       <c r="H35">
-        <v>1298.22603997566</v>
+        <v>3986183.28876367</v>
       </c>
       <c r="I35">
-        <v>-24.35560817138663</v>
+        <v>1116342.345763411</v>
       </c>
       <c r="J35">
-        <v>207.2274826891924</v>
+        <v>4841622.111745591</v>
       </c>
       <c r="K35">
-        <v>524.8211852688235</v>
+        <v>3986393.957180666</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1670,22 +1670,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>47.10097091878331</v>
+        <v>1116408.576080221</v>
       </c>
       <c r="G36">
-        <v>314.4540326467664</v>
+        <v>4841567.378156907</v>
       </c>
       <c r="H36">
-        <v>1306.286598469931</v>
+        <v>3986194.585028745</v>
       </c>
       <c r="I36">
-        <v>61.5503944872623</v>
+        <v>1116408.434482165</v>
       </c>
       <c r="J36">
-        <v>181.6710624232773</v>
+        <v>4841573.46011375</v>
       </c>
       <c r="K36">
-        <v>474.0397271392032</v>
+        <v>3986197.847523604</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1705,22 +1705,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.25277939170275</v>
+        <v>1116407.723375265</v>
       </c>
       <c r="G37">
-        <v>329.4680018957032</v>
+        <v>4841583.890965779</v>
       </c>
       <c r="H37">
-        <v>1314.054624401982</v>
+        <v>3986205.471331487</v>
       </c>
       <c r="I37">
-        <v>149.5717534293071</v>
+        <v>1116476.150574819</v>
       </c>
       <c r="J37">
-        <v>156.1146421573621</v>
+        <v>4841524.808481908</v>
       </c>
       <c r="K37">
-        <v>419.3356142795538</v>
+        <v>3985986.589217757</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1740,22 +1740,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.4488021835984</v>
+        <v>1116406.915119902</v>
       </c>
       <c r="G38">
-        <v>344.48197114464</v>
+        <v>4841600.403774651</v>
       </c>
       <c r="H38">
-        <v>1321.550609358311</v>
+        <v>3986215.97638931</v>
       </c>
       <c r="I38">
-        <v>239.7605573571351</v>
+        <v>1116545.534113957</v>
       </c>
       <c r="J38">
-        <v>130.5582218914471</v>
+        <v>4841476.156850067</v>
       </c>
       <c r="K38">
-        <v>360.7088466898755</v>
+        <v>3985760.182263128</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1775,22 +1775,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.6853281828588</v>
+        <v>1116406.147583274</v>
       </c>
       <c r="G39">
-        <v>359.4959403935768</v>
+        <v>4841616.916583523</v>
       </c>
       <c r="H39">
-        <v>1328.792964467121</v>
+        <v>3986226.126004022</v>
       </c>
       <c r="I39">
-        <v>332.1701776095067</v>
+        <v>1116616.626158914</v>
       </c>
       <c r="J39">
-        <v>105.0018016255319</v>
+        <v>4841427.505218225</v>
       </c>
       <c r="K39">
-        <v>298.1594243701678</v>
+        <v>3985518.626659717</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1810,22 +1810,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.95906807103169</v>
+        <v>1116405.417458559</v>
       </c>
       <c r="G40">
-        <v>374.5099096425135</v>
+        <v>4841633.429392396</v>
       </c>
       <c r="H40">
-        <v>1335.798292834981</v>
+        <v>3986235.943443624</v>
       </c>
       <c r="I40">
-        <v>426.8552997453021</v>
+        <v>1116689.468780075</v>
       </c>
       <c r="J40">
-        <v>79.44538135961676</v>
+        <v>4841378.853586383</v>
       </c>
       <c r="K40">
-        <v>231.6873473204312</v>
+        <v>3985261.922407523</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1845,22 +1845,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.26709464182503</v>
+        <v>1116404.721802975</v>
       </c>
       <c r="G41">
-        <v>389.5238788914503</v>
+        <v>4841649.942201267</v>
       </c>
       <c r="H41">
-        <v>1342.581618798934</v>
+        <v>3986245.449763594</v>
       </c>
       <c r="I41">
-        <v>523.8719559049749</v>
+        <v>1116764.105083768</v>
       </c>
       <c r="J41">
-        <v>53.88896109370172</v>
+        <v>4841330.201954541</v>
       </c>
       <c r="K41">
-        <v>161.2926155406657</v>
+        <v>3984990.069506546</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1880,22 +1880,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.60679312378834</v>
+        <v>1116404.057987835</v>
       </c>
       <c r="G42">
-        <v>404.537848140387</v>
+        <v>4841666.455010139</v>
       </c>
       <c r="H42">
-        <v>1349.156581956594</v>
+        <v>3986254.664078798</v>
       </c>
       <c r="I42">
-        <v>623.2775579688947</v>
+        <v>1116840.579237775</v>
       </c>
       <c r="J42">
-        <v>28.33254082778656</v>
+        <v>4841281.550322699</v>
       </c>
       <c r="K42">
-        <v>86.97522903087095</v>
+        <v>3984703.067956786</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1915,22 +1915,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.97581958409194</v>
+        <v>1116403.423656734</v>
       </c>
       <c r="G43">
-        <v>419.5518173893239</v>
+        <v>4841682.967819011</v>
       </c>
       <c r="H43">
-        <v>1355.535602274889</v>
+        <v>3986263.603794884</v>
       </c>
       <c r="I43">
-        <v>725.1309315321606</v>
+        <v>1116918.93649747</v>
       </c>
       <c r="J43">
-        <v>2.776120561871392</v>
+        <v>4841232.898690857</v>
       </c>
       <c r="K43">
-        <v>8.73518779104719</v>
+        <v>3984400.917758243</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1950,22 +1950,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.3720659048217</v>
+        <v>1116402.816690338</v>
       </c>
       <c r="G44">
-        <v>434.5657866382606</v>
+        <v>4841699.480627882</v>
       </c>
       <c r="H44">
-        <v>1361.730021301104</v>
+        <v>3986272.284806176</v>
       </c>
       <c r="I44">
-        <v>829.4923507160356</v>
+        <v>1116999.223232597</v>
       </c>
       <c r="J44">
-        <v>-22.78029970404365</v>
+        <v>4841184.247059016</v>
       </c>
       <c r="K44">
-        <v>-73.42750817880538</v>
+        <v>3984083.618910918</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1985,22 +1985,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.7936301390106</v>
+        <v>1116402.235176577</v>
       </c>
       <c r="G45">
-        <v>449.5797558871974</v>
+        <v>4841715.993436755</v>
       </c>
       <c r="H45">
-        <v>1367.750223510462</v>
+        <v>3986280.721665733</v>
       </c>
       <c r="I45">
-        <v>936.4235738365689</v>
+        <v>1117081.486954714</v>
       </c>
       <c r="J45">
-        <v>-48.33671996995882</v>
+        <v>4841135.595427174</v>
       </c>
       <c r="K45">
-        <v>-159.5128588786872</v>
+        <v>3983751.17141481</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2020,22 +2020,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.23879129655751</v>
+        <v>1116401.677385305</v>
       </c>
       <c r="G46">
-        <v>464.5937251361342</v>
+        <v>4841732.506245626</v>
       </c>
       <c r="H46">
-        <v>1373.605741051592</v>
+        <v>3986288.927732142</v>
       </c>
       <c r="I46">
-        <v>1045.987879951525</v>
+        <v>1117165.776345308</v>
       </c>
       <c r="J46">
-        <v>-73.89314023587399</v>
+        <v>4841086.943795332</v>
       </c>
       <c r="K46">
-        <v>-249.5208643085984</v>
+        <v>3983403.575269918</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2055,22 +2055,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.7059877985368</v>
+        <v>1116401.141746633</v>
       </c>
       <c r="G47">
-        <v>479.6076943850709</v>
+        <v>4841749.019054499</v>
       </c>
       <c r="H47">
-        <v>1379.305344543145</v>
+        <v>3986296.915296764</v>
       </c>
       <c r="I47">
-        <v>1158.250106307248</v>
+        <v>1117252.141284599</v>
       </c>
       <c r="J47">
-        <v>-99.44956050178915</v>
+        <v>4841038.29216349</v>
       </c>
       <c r="K47">
-        <v>-343.4515244685384</v>
+        <v>3983040.830476245</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2090,22 +2090,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.19379898552001</v>
+        <v>1116400.626832341</v>
       </c>
       <c r="G48">
-        <v>494.6216636340077</v>
+        <v>4841765.531863371</v>
       </c>
       <c r="H48">
-        <v>1384.857122092926</v>
+        <v>3986304.695694473</v>
       </c>
       <c r="I48">
-        <v>1273.276686707625</v>
+        <v>1117340.632881067</v>
       </c>
       <c r="J48">
-        <v>-125.0059807677041</v>
+        <v>4840989.640531649</v>
       </c>
       <c r="K48">
-        <v>-441.3048393585067</v>
+        <v>3982662.937033788</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2125,22 +2125,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.70092918125397</v>
+        <v>1116400.131339859</v>
       </c>
       <c r="G49">
-        <v>509.6356328829445</v>
+        <v>4841782.044672242</v>
       </c>
       <c r="H49">
-        <v>1390.268548326493</v>
+        <v>3986312.279400392</v>
       </c>
       <c r="I49">
-        <v>1391.13569082785</v>
+        <v>1117431.303501687</v>
       </c>
       <c r="J49">
-        <v>-150.5624010336192</v>
+        <v>4840940.988899807</v>
       </c>
       <c r="K49">
-        <v>-543.0808089785047</v>
+        <v>3982269.894942549</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2160,22 +2160,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.22619390466702</v>
+        <v>1116399.654078403</v>
       </c>
       <c r="G50">
-        <v>524.6496021318812</v>
+        <v>4841798.557481115</v>
       </c>
       <c r="H50">
-        <v>1395.546544903674</v>
+        <v>3986319.676114707</v>
       </c>
       <c r="I50">
-        <v>1511.896864496239</v>
+        <v>1117524.206802924</v>
       </c>
       <c r="J50">
-        <v>-176.1188212995344</v>
+        <v>4840892.337267965</v>
       </c>
       <c r="K50">
-        <v>-648.779433328532</v>
+        <v>3981861.704202526</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2195,22 +2195,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.76850789618059</v>
+        <v>1116399.193956938</v>
       </c>
       <c r="G51">
-        <v>539.663571380818</v>
+        <v>4841815.070289987</v>
       </c>
       <c r="H51">
-        <v>1400.69753375231</v>
+        <v>3986326.894837265</v>
       </c>
       <c r="I51">
-        <v>1635.631670967969</v>
+        <v>1117619.397762485</v>
       </c>
       <c r="J51">
-        <v>-201.6752415654496</v>
+        <v>4840843.685636123</v>
       </c>
       <c r="K51">
-        <v>-758.4007124085882</v>
+        <v>3981438.364813722</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2230,22 +2230,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.32687468282005</v>
+        <v>1116398.749973689</v>
       </c>
       <c r="G52">
-        <v>554.6775406297548</v>
+        <v>4841831.583098859</v>
       </c>
       <c r="H52">
-        <v>1405.727484046287</v>
+        <v>3986333.943933414</v>
       </c>
       <c r="I52">
-        <v>1762.413333215132</v>
+        <v>1117716.932711851</v>
       </c>
       <c r="J52">
-        <v>-227.2316618313647</v>
+        <v>4840795.034004281</v>
       </c>
       <c r="K52">
-        <v>-871.9446462186734</v>
+        <v>3980999.876776134</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2265,22 +2265,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.90037745377912</v>
+        <v>1116398.321206967</v>
       </c>
       <c r="G53">
-        <v>569.6915098786916</v>
+        <v>4841848.09590773</v>
       </c>
       <c r="H53">
-        <v>1410.641953789779</v>
+        <v>3986340.831192276</v>
       </c>
       <c r="I53">
-        <v>1892.316877258138</v>
+        <v>1117816.869369614</v>
       </c>
       <c r="J53">
-        <v>-252.7880820972797</v>
+        <v>4840746.38237244</v>
       </c>
       <c r="K53">
-        <v>-989.4112347587868</v>
+        <v>3980546.240089763</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2300,22 +2300,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.48817105631387</v>
+        <v>1116397.906807121</v>
       </c>
       <c r="G54">
-        <v>584.7054791276283</v>
+        <v>4841864.608716602</v>
       </c>
       <c r="H54">
-        <v>1415.446126734219</v>
+        <v>3986347.56387849</v>
       </c>
       <c r="I54">
-        <v>2025.419176564136</v>
+        <v>1117919.266875635</v>
       </c>
       <c r="J54">
-        <v>-278.3445023631948</v>
+        <v>4840697.730740597</v>
       </c>
       <c r="K54">
-        <v>-1110.80047802893</v>
+        <v>3980077.45475461</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2335,22 +2335,22 @@
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>157.1656576708574</v>
+        <v>1116578.572051189</v>
       </c>
       <c r="G55">
-        <v>-59.72779436656421</v>
+        <v>4841122.865987643</v>
       </c>
       <c r="H55">
-        <v>500.9162927602842</v>
+        <v>3985231.26377975</v>
       </c>
       <c r="I55">
-        <v>-891.2777141993646</v>
+        <v>1114862.021365214</v>
       </c>
       <c r="J55">
-        <v>2360.495700977268</v>
+        <v>4843229.012101216</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984358.737705936</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2370,22 +2370,22 @@
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>157.1656576708574</v>
+        <v>1116578.572051189</v>
       </c>
       <c r="G56">
-        <v>-59.72779436656421</v>
+        <v>4841122.865987643</v>
       </c>
       <c r="H56">
-        <v>500.9162927602842</v>
+        <v>3985231.26377975</v>
       </c>
       <c r="I56">
-        <v>-873.68151888264</v>
+        <v>1114891.635379314</v>
       </c>
       <c r="J56">
-        <v>2303.074768539705</v>
+        <v>4843180.360455346</v>
       </c>
       <c r="K56">
-        <v>368.0488337947194</v>
+        <v>3984662.532814709</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2405,22 +2405,22 @@
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>157.1656576708574</v>
+        <v>1116578.572051189</v>
       </c>
       <c r="G57">
-        <v>-59.72779436656421</v>
+        <v>4841122.865987643</v>
       </c>
       <c r="H57">
-        <v>500.9162927602842</v>
+        <v>3985231.26377975</v>
       </c>
       <c r="I57">
-        <v>-855.6520334444442</v>
+        <v>1114921.978611266</v>
       </c>
       <c r="J57">
-        <v>2245.653836102141</v>
+        <v>4843131.708809475</v>
       </c>
       <c r="K57">
-        <v>717.7450656611456</v>
+        <v>3984951.179306811</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2440,22 +2440,22 @@
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>157.1656576708574</v>
+        <v>1116578.572051189</v>
       </c>
       <c r="G58">
-        <v>-59.72779436656421</v>
+        <v>4841122.865987643</v>
       </c>
       <c r="H58">
-        <v>500.9162927602842</v>
+        <v>3985231.26377975</v>
       </c>
       <c r="I58">
-        <v>-837.1785885141551</v>
+        <v>1114953.069017391</v>
       </c>
       <c r="J58">
-        <v>2188.232903664576</v>
+        <v>4843083.057163605</v>
       </c>
       <c r="K58">
-        <v>1049.088695599281</v>
+        <v>3985224.677182243</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2475,22 +2475,22 @@
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>157.1656576708574</v>
+        <v>1116578.572051189</v>
       </c>
       <c r="G59">
-        <v>-59.72779436656421</v>
+        <v>4841122.865987643</v>
       </c>
       <c r="H59">
-        <v>500.9162927602842</v>
+        <v>3985231.26377975</v>
       </c>
       <c r="I59">
-        <v>-818.2502519977155</v>
+        <v>1114984.924996163</v>
       </c>
       <c r="J59">
-        <v>2130.811971227013</v>
+        <v>4843034.405517736</v>
       </c>
       <c r="K59">
-        <v>1362.079723609125</v>
+        <v>3985483.026441006</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2510,22 +2510,22 @@
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>157.1656576708574</v>
+        <v>1116578.572051189</v>
       </c>
       <c r="G60">
-        <v>-59.72779436656421</v>
+        <v>4841122.865987643</v>
       </c>
       <c r="H60">
-        <v>500.9162927602842</v>
+        <v>3985231.26377975</v>
       </c>
       <c r="I60">
-        <v>-798.8558226083085</v>
+        <v>1115017.565399107</v>
       </c>
       <c r="J60">
-        <v>2073.391038789448</v>
+        <v>4842985.753871866</v>
       </c>
       <c r="K60">
-        <v>1656.718149690678</v>
+        <v>3985726.227083098</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2545,22 +2545,22 @@
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>157.1656576708574</v>
+        <v>1116578.572051189</v>
       </c>
       <c r="G61">
-        <v>-59.72779436656421</v>
+        <v>4841122.865987643</v>
       </c>
       <c r="H61">
-        <v>500.9162927602842</v>
+        <v>3985231.26377975</v>
       </c>
       <c r="I61">
-        <v>-778.9838232377354</v>
+        <v>1115051.009541943</v>
       </c>
       <c r="J61">
-        <v>2015.970106351884</v>
+        <v>4842937.102225996</v>
       </c>
       <c r="K61">
-        <v>1933.003973843938</v>
+        <v>3985954.279108519</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2580,22 +2580,22 @@
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>157.1656576708574</v>
+        <v>1116578.572051189</v>
       </c>
       <c r="G62">
-        <v>-59.72779436656421</v>
+        <v>4841122.865987643</v>
       </c>
       <c r="H62">
-        <v>500.9162927602842</v>
+        <v>3985231.26377975</v>
       </c>
       <c r="I62">
-        <v>-758.6224941645662</v>
+        <v>1115085.277216029</v>
       </c>
       <c r="J62">
-        <v>1958.54917391432</v>
+        <v>4842888.450580126</v>
       </c>
       <c r="K62">
-        <v>2190.937196068908</v>
+        <v>3986167.182517271</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2615,22 +2615,22 @@
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>157.1656576708574</v>
+        <v>1116578.572051189</v>
       </c>
       <c r="G63">
-        <v>-49.86505428984007</v>
+        <v>4841139.378801064</v>
       </c>
       <c r="H63">
-        <v>500.9162927602842</v>
+        <v>3985231.26377975</v>
       </c>
       <c r="I63">
-        <v>-737.7597860950494</v>
+        <v>1115120.388700064</v>
       </c>
       <c r="J63">
-        <v>1901.128241476757</v>
+        <v>4842839.798934256</v>
       </c>
       <c r="K63">
-        <v>2430.517816365585</v>
+        <v>3986364.937309352</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2650,22 +2650,22 @@
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>121.9788847416313</v>
+        <v>1116529.891484446</v>
       </c>
       <c r="G64">
-        <v>-40.00231421311594</v>
+        <v>4841155.891614485</v>
       </c>
       <c r="H64">
-        <v>617.125501986977</v>
+        <v>3985430.518333291</v>
       </c>
       <c r="I64">
-        <v>-716.3833530326602</v>
+        <v>1115156.364772091</v>
       </c>
       <c r="J64">
-        <v>1843.707309039193</v>
+        <v>4842791.147288386</v>
       </c>
       <c r="K64">
-        <v>2651.74583473397</v>
+        <v>3986547.543484763</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2685,22 +2685,22 @@
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>101.3084208047869</v>
+        <v>1116501.294093565</v>
       </c>
       <c r="G65">
-        <v>-30.13957413639181</v>
+        <v>4841172.404427906</v>
       </c>
       <c r="H65">
-        <v>686.3456501669825</v>
+        <v>3985549.204535644</v>
       </c>
       <c r="I65">
-        <v>-694.4805449720677</v>
+        <v>1115193.226721794</v>
       </c>
       <c r="J65">
-        <v>1786.286376601629</v>
+        <v>4842742.495642515</v>
       </c>
       <c r="K65">
-        <v>2854.621251174065</v>
+        <v>3986715.001043504</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2720,22 +2720,22 @@
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>88.2597075058905</v>
+        <v>1116483.24132243</v>
       </c>
       <c r="G66">
-        <v>-20.27683405966767</v>
+        <v>4841188.917241327</v>
       </c>
       <c r="H66">
-        <v>735.812611660269</v>
+        <v>3985634.021542773</v>
       </c>
       <c r="I66">
-        <v>-672.0384004131965</v>
+        <v>1115230.996363097</v>
       </c>
       <c r="J66">
-        <v>1728.865444164065</v>
+        <v>4842693.843996645</v>
       </c>
       <c r="K66">
-        <v>3039.144065685868</v>
+        <v>3986867.309985574</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2755,22 +2755,22 @@
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>79.15958781907707</v>
+        <v>1116470.651393121</v>
       </c>
       <c r="G67">
-        <v>-10.41409398294354</v>
+        <v>4841205.430054747</v>
       </c>
       <c r="H67">
-        <v>774.3325080731473</v>
+        <v>3985700.068500782</v>
       </c>
       <c r="I67">
-        <v>-649.0436386909579</v>
+        <v>1115269.696047069</v>
       </c>
       <c r="J67">
-        <v>1671.4445117265</v>
+        <v>4842645.192350775</v>
       </c>
       <c r="K67">
-        <v>3205.314278269379</v>
+        <v>3987004.470310975</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2790,22 +2790,22 @@
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>72.3706260152231</v>
+        <v>1116461.258928831</v>
       </c>
       <c r="G68">
-        <v>-0.5513539062194104</v>
+        <v>4841221.942868168</v>
       </c>
       <c r="H68">
-        <v>805.8832911108102</v>
+        <v>3985754.166082462</v>
       </c>
       <c r="I68">
-        <v>-625.482652116102</v>
+        <v>1115309.348675156</v>
       </c>
       <c r="J68">
-        <v>1614.023579288937</v>
+        <v>4842596.540704905</v>
       </c>
       <c r="K68">
-        <v>3353.131888924598</v>
+        <v>3987126.482019706</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2825,22 +2825,22 @@
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>67.06260593501851</v>
+        <v>1116453.915333376</v>
       </c>
       <c r="G69">
-        <v>9.311386170504726</v>
+        <v>4841238.455681589</v>
       </c>
       <c r="H69">
-        <v>832.6045012481746</v>
+        <v>3985799.982785212</v>
       </c>
       <c r="I69">
-        <v>-601.3414979225506</v>
+        <v>1115349.97771273</v>
       </c>
       <c r="J69">
-        <v>1556.602646851373</v>
+        <v>4842547.889059035</v>
       </c>
       <c r="K69">
-        <v>3482.596897651526</v>
+        <v>3987233.345111766</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2860,22 +2860,22 @@
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>62.76803120051797</v>
+        <v>1116447.973829947</v>
       </c>
       <c r="G70">
-        <v>19.17412624722886</v>
+        <v>4841254.96849501</v>
       </c>
       <c r="H70">
-        <v>855.780284384697</v>
+        <v>3985839.720430383</v>
       </c>
       <c r="I70">
-        <v>-576.6058900164373</v>
+        <v>1115391.607202976</v>
       </c>
       <c r="J70">
-        <v>1499.181714413809</v>
+        <v>4842499.237413165</v>
       </c>
       <c r="K70">
-        <v>3593.709304450162</v>
+        <v>3987325.059587155</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2895,22 +2895,22 @@
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>59.20200392817869</v>
+        <v>1116443.040265025</v>
       </c>
       <c r="G71">
-        <v>29.03686632395299</v>
+        <v>4841271.481308432</v>
       </c>
       <c r="H71">
-        <v>876.24220756479</v>
+        <v>3985874.804838881</v>
       </c>
       <c r="I71">
-        <v>-551.2611905219783</v>
+        <v>1115434.26178112</v>
       </c>
       <c r="J71">
-        <v>1441.760781976245</v>
+        <v>4842450.585767295</v>
       </c>
       <c r="K71">
-        <v>3686.469109320507</v>
+        <v>3987401.625445875</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2930,22 +2930,22 @@
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>56.18006412508566</v>
+        <v>1116438.859439959</v>
       </c>
       <c r="G72">
-        <v>38.89960640067714</v>
+        <v>4841287.994121852</v>
       </c>
       <c r="H72">
-        <v>894.5597463408318</v>
+        <v>3985906.212444484</v>
       </c>
       <c r="I72">
-        <v>-525.2924011191639</v>
+        <v>1115477.966689011</v>
       </c>
       <c r="J72">
-        <v>1384.339849538681</v>
+        <v>4842401.934121425</v>
       </c>
       <c r="K72">
-        <v>3760.87631226256</v>
+        <v>3987463.042687925</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2965,22 +2965,22 @@
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>53.57695780627514</v>
+        <v>1116435.258067047</v>
       </c>
       <c r="G73">
-        <v>48.76234647740127</v>
+        <v>4841304.506935274</v>
       </c>
       <c r="H73">
-        <v>911.1400281707913</v>
+        <v>3985934.641315789</v>
       </c>
       <c r="I73">
-        <v>-498.6841541681534</v>
+        <v>1115522.74779005</v>
       </c>
       <c r="J73">
-        <v>1326.918917101117</v>
+        <v>4842353.282475554</v>
       </c>
       <c r="K73">
-        <v>3816.930913276321</v>
+        <v>3987509.311313305</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3000,22 +3000,22 @@
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>51.30431148293525</v>
+        <v>1116432.113882405</v>
       </c>
       <c r="G74">
-        <v>58.62508655412539</v>
+        <v>4841321.019748695</v>
       </c>
       <c r="H74">
-        <v>926.2842224502468</v>
+        <v>3985960.607843657</v>
       </c>
       <c r="I74">
-        <v>-471.4207036151128</v>
+        <v>1115568.631584504</v>
       </c>
       <c r="J74">
-        <v>1269.497984663553</v>
+        <v>4842304.630829684</v>
       </c>
       <c r="K74">
-        <v>3854.632912361791</v>
+        <v>3987540.431322014</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3035,22 +3035,22 @@
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>49.29777957770373</v>
+        <v>1116429.337864538</v>
       </c>
       <c r="G75">
-        <v>68.48782663084954</v>
+        <v>4841337.532562116</v>
       </c>
       <c r="H75">
-        <v>940.2213917211843</v>
+        <v>3985984.504783144</v>
       </c>
       <c r="I75">
-        <v>-443.4859156741179</v>
+        <v>1115615.645225185</v>
       </c>
       <c r="J75">
-        <v>1212.077052225989</v>
+        <v>4842255.979183814</v>
       </c>
       <c r="K75">
-        <v>3873.982309518969</v>
+        <v>3987556.402714053</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3070,22 +3070,22 @@
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>47.50926353663593</v>
+        <v>1116426.863469552</v>
       </c>
       <c r="G76">
-        <v>78.35056670757366</v>
+        <v>4841354.045375537</v>
       </c>
       <c r="H76">
-        <v>953.1298187218042</v>
+        <v>3986006.637821274</v>
       </c>
       <c r="I76">
-        <v>-414.8632592796097</v>
+        <v>1115663.816533515</v>
       </c>
       <c r="J76">
-        <v>1154.656119788425</v>
+        <v>4842207.327537945</v>
       </c>
       <c r="K76">
-        <v>3874.979104747856</v>
+        <v>3987557.225489422</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3105,22 +3105,22 @@
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>45.90199941518789</v>
+        <v>1116424.639834879</v>
       </c>
       <c r="G77">
-        <v>88.21330678429781</v>
+        <v>4841370.558188958</v>
       </c>
       <c r="H77">
-        <v>965.1509885731099</v>
+        <v>3986027.249551168</v>
       </c>
       <c r="I77">
-        <v>-385.535796303748</v>
+        <v>1115713.174015997</v>
       </c>
       <c r="J77">
-        <v>1097.235187350861</v>
+        <v>4842158.675892075</v>
       </c>
       <c r="K77">
-        <v>3857.623298048451</v>
+        <v>3987542.89964812</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3140,22 +3140,22 @@
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>44.4473443230091</v>
+        <v>1116422.62733335</v>
       </c>
       <c r="G78">
-        <v>98.07604686102194</v>
+        <v>4841387.071002379</v>
       </c>
       <c r="H78">
-        <v>976.3990668832788</v>
+        <v>3986046.535723382</v>
       </c>
       <c r="I78">
-        <v>-355.4861715328765</v>
+        <v>1115763.746881076</v>
       </c>
       <c r="J78">
-        <v>1039.814254913297</v>
+        <v>4842110.024246205</v>
       </c>
       <c r="K78">
-        <v>3821.914889420755</v>
+        <v>3987513.425190148</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3175,22 +3175,22 @@
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>43.12260924621052</v>
+        <v>1116420.794574931</v>
       </c>
       <c r="G79">
-        <v>107.9387869377461</v>
+        <v>4841403.5838158</v>
       </c>
       <c r="H79">
-        <v>986.9675099618937</v>
+        <v>3986064.656579906</v>
       </c>
       <c r="I79">
-        <v>-324.6966023971704</v>
+        <v>1115815.565056432</v>
       </c>
       <c r="J79">
-        <v>982.3933224757328</v>
+        <v>4842061.372600335</v>
       </c>
       <c r="K79">
-        <v>3767.853878864766</v>
+        <v>3987468.802115507</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3210,22 +3210,22 @@
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>41.90955848522087</v>
+        <v>1116419.116330704</v>
       </c>
       <c r="G80">
-        <v>117.8015270144702</v>
+        <v>4841420.096629221</v>
       </c>
       <c r="H80">
-        <v>996.9337893083042</v>
+        <v>3986081.744954871</v>
       </c>
       <c r="I80">
-        <v>-293.1488684473818</v>
+        <v>1115868.659206684</v>
       </c>
       <c r="J80">
-        <v>924.9723900381687</v>
+        <v>4842012.720954464</v>
       </c>
       <c r="K80">
-        <v>3695.440266380486</v>
+        <v>3987409.030424195</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3245,22 +3245,22 @@
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>40.7933464228589</v>
+        <v>1116417.572061898</v>
       </c>
       <c r="G81">
-        <v>127.6642670911943</v>
+        <v>4841436.609442642</v>
       </c>
       <c r="H81">
-        <v>1006.362841217349</v>
+        <v>3986097.912189301</v>
       </c>
       <c r="I81">
-        <v>-260.8243005724628</v>
+        <v>1115923.060751541</v>
       </c>
       <c r="J81">
-        <v>867.5514576006049</v>
+        <v>4841964.069308594</v>
       </c>
       <c r="K81">
-        <v>3604.674051967915</v>
+        <v>3987334.110116213</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3280,22 +3280,22 @@
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>39.7617486874833</v>
+        <v>1116416.144856212</v>
       </c>
       <c r="G82">
-        <v>137.5270071679185</v>
+        <v>4841453.122256064</v>
       </c>
       <c r="H82">
-        <v>1015.309633274201</v>
+        <v>3986113.252531677</v>
       </c>
       <c r="I82">
-        <v>-227.7037699516808</v>
+        <v>1115978.801884391</v>
       </c>
       <c r="J82">
-        <v>810.1305251630408</v>
+        <v>4841915.417662724</v>
       </c>
       <c r="K82">
-        <v>3495.555235627052</v>
+        <v>3987244.041191561</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3315,22 +3315,22 @@
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>38.80459606021843</v>
+        <v>1116414.820644627</v>
       </c>
       <c r="G83">
-        <v>147.3897472446426</v>
+        <v>4841469.635069484</v>
       </c>
       <c r="H83">
-        <v>1023.821105870345</v>
+        <v>3986127.846466904</v>
       </c>
       <c r="I83">
-        <v>-193.7676767346915</v>
+        <v>1116035.915591356</v>
       </c>
       <c r="J83">
-        <v>752.7095927254767</v>
+        <v>4841866.766016854</v>
       </c>
       <c r="K83">
-        <v>3368.083817357897</v>
+        <v>3987138.823650239</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3350,22 +3350,22 @@
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>37.91335087169728</v>
+        <v>1116413.587615358</v>
       </c>
       <c r="G84">
-        <v>157.2524873213667</v>
+        <v>4841486.147882905</v>
       </c>
       <c r="H84">
-        <v>1031.937662920017</v>
+        <v>3986141.76327231</v>
       </c>
       <c r="I84">
-        <v>-158.9959384428672</v>
+        <v>1116094.435670812</v>
       </c>
       <c r="J84">
-        <v>695.2886602879129</v>
+        <v>4841818.114370984</v>
       </c>
       <c r="K84">
-        <v>3222.259797160451</v>
+        <v>3987018.457492246</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3385,22 +3385,22 @@
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>37.08078538063387</v>
+        <v>1116412.435768895</v>
       </c>
       <c r="G85">
-        <v>167.1152273980909</v>
+        <v>4841502.660696327</v>
       </c>
       <c r="H85">
-        <v>1039.69433182779</v>
+        <v>3986155.06300656</v>
       </c>
       <c r="I85">
-        <v>-123.3679780850195</v>
+        <v>1116154.396753387</v>
       </c>
       <c r="J85">
-        <v>637.8677278503488</v>
+        <v>4841769.462725114</v>
       </c>
       <c r="K85">
-        <v>3058.083175034713</v>
+        <v>3986882.942717583</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3420,22 +3420,22 @@
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>36.30073435010006</v>
+        <v>1116411.35657569</v>
       </c>
       <c r="G86">
-        <v>176.977967474815</v>
+        <v>4841519.173509747</v>
       </c>
       <c r="H86">
-        <v>1047.121677039142</v>
+        <v>3986167.798076043</v>
       </c>
       <c r="I86">
-        <v>-86.86271198048202</v>
+        <v>1116215.834322457</v>
       </c>
       <c r="J86">
-        <v>580.446795412785</v>
+        <v>4841720.811079244</v>
       </c>
       <c r="K86">
-        <v>2875.553950980684</v>
+        <v>3986732.27932625</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3455,22 +3455,22 @@
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>35.56790241589556</v>
+        <v>1116410.342709657</v>
       </c>
       <c r="G87">
-        <v>186.8407075515391</v>
+        <v>4841535.686323169</v>
       </c>
       <c r="H87">
-        <v>1054.246527439152</v>
+        <v>3986180.014482083</v>
       </c>
       <c r="I87">
-        <v>-49.45853728234928</v>
+        <v>1116278.784735145</v>
       </c>
       <c r="J87">
-        <v>523.0258629752209</v>
+        <v>4841672.159433374</v>
       </c>
       <c r="K87">
-        <v>2674.672124998363</v>
+        <v>3986566.467318247</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3490,22 +3490,22 @@
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>34.87771246842927</v>
+        <v>1116409.387838408</v>
       </c>
       <c r="G88">
-        <v>196.7034476282633</v>
+        <v>4841552.199136589</v>
       </c>
       <c r="H88">
-        <v>1061.092561340513</v>
+        <v>3986191.752823972</v>
       </c>
       <c r="I88">
-        <v>-11.13331919348495</v>
+        <v>1116343.285243831</v>
       </c>
       <c r="J88">
-        <v>465.6049305376568</v>
+        <v>4841623.507787503</v>
       </c>
       <c r="K88">
-        <v>2455.43769708775</v>
+        <v>3986385.506693573</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3525,22 +3525,22 @@
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>34.22618511693802</v>
+        <v>1116408.486456495</v>
       </c>
       <c r="G89">
-        <v>206.5661877049874</v>
+        <v>4841568.711950011</v>
       </c>
       <c r="H89">
-        <v>1067.680781261507</v>
+        <v>3986203.049113033</v>
       </c>
       <c r="I89">
-        <v>28.13562213226366</v>
+        <v>1116409.374018204</v>
       </c>
       <c r="J89">
-        <v>408.183998100093</v>
+        <v>4841574.856141633</v>
       </c>
       <c r="K89">
-        <v>2217.850667248846</v>
+        <v>3986189.39745223</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3560,22 +3560,22 @@
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>33.60984197890514</v>
+        <v>1116407.633751607</v>
       </c>
       <c r="G90">
-        <v>216.4289277817115</v>
+        <v>4841585.224763432</v>
       </c>
       <c r="H90">
-        <v>1074.029902507723</v>
+        <v>3986213.935438891</v>
       </c>
       <c r="I90">
-        <v>68.37152501139519</v>
+        <v>1116477.090167845</v>
       </c>
       <c r="J90">
-        <v>350.7630656625289</v>
+        <v>4841526.204495763</v>
       </c>
       <c r="K90">
-        <v>1961.911035481651</v>
+        <v>3985978.139594216</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3595,22 +3595,22 @@
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>33.02562742413883</v>
+        <v>1116406.825496309</v>
       </c>
       <c r="G91">
-        <v>226.2916678584357</v>
+        <v>4841601.737576852</v>
       </c>
       <c r="H91">
-        <v>1080.156673680199</v>
+        <v>3986224.440519019</v>
       </c>
       <c r="I91">
-        <v>109.5981999825738</v>
+        <v>1116546.473765374</v>
       </c>
       <c r="J91">
-        <v>293.3421332249651</v>
+        <v>4841477.552849894</v>
       </c>
       <c r="K91">
-        <v>1687.618801786164</v>
+        <v>3985751.733119532</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3630,22 +3630,22 @@
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>32.4708447525387</v>
+        <v>1116406.057959743</v>
       </c>
       <c r="G92">
-        <v>236.1544079351598</v>
+        <v>4841618.250390274</v>
       </c>
       <c r="H92">
-        <v>1086.076142937408</v>
+        <v>3986234.590155282</v>
       </c>
       <c r="I92">
-        <v>151.8400438970717</v>
+        <v>1116617.56587016</v>
       </c>
       <c r="J92">
-        <v>235.921200787401</v>
+        <v>4841428.901204024</v>
       </c>
       <c r="K92">
-        <v>1394.973966162384</v>
+        <v>3985510.178028178</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3665,22 +3665,22 @@
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>31.94310376237303</v>
+        <v>1116405.327835086</v>
       </c>
       <c r="G93">
-        <v>246.0171480118839</v>
+        <v>4841634.763203694</v>
       </c>
       <c r="H93">
-        <v>1091.801880668739</v>
+        <v>3986244.407615731</v>
       </c>
       <c r="I93">
-        <v>195.1220543561807</v>
+        <v>1116690.408552623</v>
       </c>
       <c r="J93">
-        <v>178.5002683498369</v>
+        <v>4841380.249558154</v>
       </c>
       <c r="K93">
-        <v>1083.976528610313</v>
+        <v>3985253.474320154</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3700,22 +3700,22 @@
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>31.44027738274558</v>
+        <v>1116404.632179558</v>
       </c>
       <c r="G94">
-        <v>255.8798880886081</v>
+        <v>4841651.276017115</v>
       </c>
       <c r="H94">
-        <v>1097.346166871497</v>
+        <v>3986253.913955885</v>
       </c>
       <c r="I94">
-        <v>239.4698445041251</v>
+        <v>1116765.044919128</v>
       </c>
       <c r="J94">
-        <v>121.0793359122731</v>
+        <v>4841331.597912284</v>
       </c>
       <c r="K94">
-        <v>754.6264891299514</v>
+        <v>3984981.621995459</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3735,22 +3735,22 @@
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>30.96046557529287</v>
+        <v>1116403.968364471</v>
       </c>
       <c r="G95">
-        <v>265.7426281653322</v>
+        <v>4841667.788830536</v>
       </c>
       <c r="H95">
-        <v>1102.720149739544</v>
+        <v>3986263.128290655</v>
       </c>
       <c r="I95">
-        <v>284.9096581852448</v>
+        <v>1116841.519137493</v>
       </c>
       <c r="J95">
-        <v>63.65840347470902</v>
+        <v>4841282.946266414</v>
       </c>
       <c r="K95">
-        <v>406.9238477212971</v>
+        <v>3984694.621054094</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3770,22 +3770,22 @@
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>30.50196510805673</v>
+        <v>1116403.334033421</v>
       </c>
       <c r="G96">
-        <v>275.6053682420564</v>
+        <v>4841684.301643958</v>
       </c>
       <c r="H96">
-        <v>1107.933980613333</v>
+        <v>3986272.068025724</v>
       </c>
       <c r="I96">
-        <v>331.4683854743997</v>
+        <v>1116919.876463131</v>
       </c>
       <c r="J96">
-        <v>6.237471037144934</v>
+        <v>4841234.294620543</v>
       </c>
       <c r="K96">
-        <v>40.86860438435141</v>
+        <v>3984392.47149606</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3805,22 +3805,22 @@
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>30.06324410531206</v>
+        <v>1116402.727067074</v>
       </c>
       <c r="G97">
-        <v>285.4681083187805</v>
+        <v>4841700.814457378</v>
       </c>
       <c r="H97">
-        <v>1112.996929397403</v>
+        <v>3986280.749055448</v>
       </c>
       <c r="I97">
-        <v>379.1735785898058</v>
+        <v>1117000.163265825</v>
       </c>
       <c r="J97">
-        <v>-51.18346140041889</v>
+        <v>4841185.642974673</v>
       </c>
       <c r="K97">
-        <v>-343.5392408808848</v>
+        <v>3984075.173321354</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3840,22 +3840,22 @@
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>29.64292050661076</v>
+        <v>1116402.14555336</v>
       </c>
       <c r="G98">
-        <v>295.3308483955046</v>
+        <v>4841717.327270799</v>
       </c>
       <c r="H98">
-        <v>1117.917483742651</v>
+        <v>3986289.185932919</v>
       </c>
       <c r="I98">
-        <v>428.0534681977062</v>
+        <v>1117082.427057174</v>
       </c>
       <c r="J98">
-        <v>-108.604393837983</v>
+        <v>4841136.991328803</v>
       </c>
       <c r="K98">
-        <v>-746.2996880744137</v>
+        <v>3983742.72652998</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3875,22 +3875,22 @@
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>29.23974374482782</v>
+        <v>1116401.587762133</v>
       </c>
       <c r="G99">
-        <v>305.1935884722288</v>
+        <v>4841733.84008422</v>
       </c>
       <c r="H99">
-        <v>1122.703434659032</v>
+        <v>3986297.392016752</v>
       </c>
       <c r="I99">
-        <v>478.1369801185276</v>
+        <v>1117166.716518702</v>
       </c>
       <c r="J99">
-        <v>-166.0253262755471</v>
+        <v>4841088.339682933</v>
       </c>
       <c r="K99">
-        <v>-1167.412737196235</v>
+        <v>3983395.131121934</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3910,22 +3910,22 @@
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>28.85257908986449</v>
+        <v>1116401.052123503</v>
       </c>
       <c r="G100">
-        <v>315.0563285489529</v>
+        <v>4841750.352897641</v>
       </c>
       <c r="H100">
-        <v>1127.361950727305</v>
+        <v>3986305.379598335</v>
       </c>
       <c r="I100">
-        <v>529.453752444413</v>
+        <v>1117253.081530676</v>
       </c>
       <c r="J100">
-        <v>-223.4462587131111</v>
+        <v>4841039.688037063</v>
       </c>
       <c r="K100">
-        <v>-1606.878388246348</v>
+        <v>3983032.387097219</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3945,22 +3945,22 @@
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>28.48039421156622</v>
+        <v>1116400.537209253</v>
       </c>
       <c r="G101">
-        <v>324.919068625677</v>
+        <v>4841766.865711063</v>
       </c>
       <c r="H101">
-        <v>1131.899642684555</v>
+        <v>3986313.160012564</v>
       </c>
       <c r="I101">
-        <v>582.0341530782582</v>
+        <v>1117341.573201616</v>
       </c>
       <c r="J101">
-        <v>-280.8671911506747</v>
+        <v>4840991.036391193</v>
       </c>
       <c r="K101">
-        <v>-2064.696641224748</v>
+        <v>3982654.494455833</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3980,22 +3980,22 @@
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>28.12224759950496</v>
+        <v>1116400.041716811</v>
       </c>
       <c r="G102">
-        <v>334.7818087024012</v>
+        <v>4841783.378524483</v>
       </c>
       <c r="H102">
-        <v>1136.322619844056</v>
+        <v>3986320.743734587</v>
       </c>
       <c r="I102">
-        <v>635.9092977046308</v>
+        <v>1117432.243898542</v>
       </c>
       <c r="J102">
-        <v>-338.2881235882388</v>
+        <v>4840942.384745323</v>
       </c>
       <c r="K102">
-        <v>-2540.867496131444</v>
+        <v>3982261.453197776</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4015,22 +4015,22 @@
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>27.77727854385592</v>
+        <v>1116399.564455393</v>
       </c>
       <c r="G103">
-        <v>344.6445487791253</v>
+        <v>4841799.891337905</v>
       </c>
       <c r="H103">
-        <v>1140.636539557861</v>
+        <v>3986328.140464608</v>
       </c>
       <c r="I103">
-        <v>691.1110682032032</v>
+        <v>1117525.147277963</v>
       </c>
       <c r="J103">
-        <v>-395.7090560258029</v>
+        <v>4840893.733099452</v>
       </c>
       <c r="K103">
-        <v>-3035.390952966431</v>
+        <v>3981853.26332305</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4050,22 +4050,22 @@
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>27.44469843464967</v>
+        <v>1116399.104333965</v>
       </c>
       <c r="G104">
-        <v>354.5072888558494</v>
+        <v>4841816.404151326</v>
       </c>
       <c r="H104">
-        <v>1144.846650726898</v>
+        <v>3986335.359202493</v>
       </c>
       <c r="I104">
-        <v>747.6721315156054</v>
+        <v>1117620.338317634</v>
       </c>
       <c r="J104">
-        <v>-453.1299884633669</v>
+        <v>4840845.081453582</v>
       </c>
       <c r="K104">
-        <v>-3548.26701172971</v>
+        <v>3981429.924831654</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4085,22 +4085,22 @@
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>27.12378317920134</v>
+        <v>1116398.660350751</v>
       </c>
       <c r="G105">
-        <v>364.3700289325736</v>
+        <v>4841832.916964746</v>
       </c>
       <c r="H105">
-        <v>1148.957832198001</v>
+        <v>3986342.40831361</v>
       </c>
       <c r="I105">
-        <v>805.625958976852</v>
+        <v>1117717.873349082</v>
       </c>
       <c r="J105">
-        <v>-510.550920900931</v>
+        <v>4840796.429807712</v>
       </c>
       <c r="K105">
-        <v>-4079.49567242128</v>
+        <v>3980991.437723587</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4120,22 +4120,22 @@
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>26.81386657178816</v>
+        <v>1116398.231584063</v>
       </c>
       <c r="G106">
-        <v>374.2327690092977</v>
+        <v>4841849.429778168</v>
       </c>
       <c r="H106">
-        <v>1152.974626752399</v>
+        <v>3986349.295587096</v>
       </c>
       <c r="I106">
-        <v>865.0068461227868</v>
+        <v>1117817.810090949</v>
       </c>
       <c r="J106">
-        <v>-567.9718533384946</v>
+        <v>4840747.778161842</v>
       </c>
       <c r="K106">
-        <v>-4629.076935041138</v>
+        <v>3980537.80199885</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4155,22 +4155,22 @@
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>26.51433447742096</v>
+        <v>1116397.817184251</v>
       </c>
       <c r="G107">
-        <v>384.0955090860218</v>
+        <v>4841865.942591589</v>
       </c>
       <c r="H107">
-        <v>1156.901271279445</v>
+        <v>3986356.028287606</v>
       </c>
       <c r="I107">
-        <v>925.8499329852767</v>
+        <v>1117920.207683145</v>
       </c>
       <c r="J107">
-        <v>-625.3927857760586</v>
+        <v>4840699.126515972</v>
       </c>
       <c r="K107">
-        <v>-5197.010799589292</v>
+        <v>3980069.017657444</v>
       </c>
     </row>
   </sheetData>
